--- a/0622工作内容/+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++/a3d3989457a1e45779ae0403a4f6c887.xlsx
+++ b/0622工作内容/+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++/a3d3989457a1e45779ae0403a4f6c887.xlsx
@@ -1,50 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\myGGGt\0622工作内容\+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="-30" windowWidth="14955" windowHeight="7875"/>
+    <workbookView xWindow="9300" yWindow="-36" windowWidth="14952" windowHeight="7872"/>
   </bookViews>
   <sheets>
     <sheet name="솔트케어자염치약120g" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">솔트케어자염치약120g!$A$1:$J$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">솔트케어자염치약120g!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>사   이   즈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제 품 명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제품구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주판매처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원산지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대한민국</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +93,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -115,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -133,7 +122,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -144,7 +133,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -183,14 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제조원/연구개발및판매원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리생활건강  /  LS생활건강(아이메가)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>* 자염은 천일염보다 수용성칼슘이14배, 항산화작용을 하는 유리아미노산이 약5배나 더 들어있으며, 우리 몸에  유익한 미네랄성분도 다량 함유되어 있는 최고의 명품 소금으로 치아형성과 잇몸 뼈, 잇몸보호에 도움을 주며   특히, 잇몸 질환 완화에 탁월한 효과가 있습니다.바닷물을 끓여 만든 대한민국 전통소금인 자염과 천연원료를     사용하여 만든 특허 받은 명품자염 치약입니다</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -200,14 +181,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -247,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -256,7 +237,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -264,7 +245,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -273,7 +254,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -282,7 +263,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -291,7 +272,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -299,7 +280,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -307,7 +288,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -321,7 +302,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -330,14 +311,14 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -357,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -780,32 +761,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
@@ -897,11 +852,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -918,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,46 +889,163 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -1015,150 +1087,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="쉼표 [0] 2" xfId="1"/>
     <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="통화 [0] 2" xfId="3"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="4"/>
     <cellStyle name="표준 2 2" xfId="5"/>
     <cellStyle name="표준 3" xfId="6"/>
@@ -1171,6 +1105,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1179,53 +1116,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>885826</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1352385</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19051" y="771525"/>
-          <a:ext cx="9010650" cy="1323810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1236,7 +1135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1259,11 +1158,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5022</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1343891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="748146"/>
+          <a:ext cx="8179204" cy="1330036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1305,7 +1248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,7 +1283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,366 +1492,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="3" customWidth="1"/>
-    <col min="2" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="10" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="A1" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="108.75" customHeight="1" thickBot="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="65"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="111.75" customHeight="1" thickBot="1">
+      <c r="A9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="111.75" customHeight="1" thickBot="1">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="5" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" ht="178.5" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="46" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A19" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A20" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" spans="1:10" ht="178.5" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="D25" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J14"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A15:B18"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:J10"/>
+  <mergeCells count="25">
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:J8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J12"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A13:B16"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1924,7 +1825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
